--- a/LOCATION SHEETS/1830sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1830sLOCATIONS.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE67C33F-95B2-7245-A00F-24A681A20382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B658AF60-C05D-9743-B3E6-35BE70AD2EE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1830sLOCATIONS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="338">
   <si>
     <t>LOCATIONS IN 1830s</t>
   </si>
@@ -96,6 +106,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>JacsHu</t>
     </r>
@@ -115,6 +126,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>totals for each year only</t>
     </r>
@@ -134,6 +146,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>JacsHu</t>
     </r>
@@ -150,6 +163,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1834 to end decade</t>
     </r>
@@ -163,6 +177,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>maverick1837</t>
     </r>
@@ -182,6 +197,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>full decade</t>
     </r>
@@ -219,6 +235,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Full decade</t>
     </r>
@@ -241,6 +258,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1835 only</t>
     </r>
@@ -257,6 +275,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Full decade. Mount Stewart appeared in a different decade too - forget which</t>
     </r>
@@ -265,6 +284,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. The gauge was moved from MOUNTSTEWART. </t>
     </r>
@@ -274,6 +294,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://www.google.com/books/edition/_/UZU_AAAAYAAJ?hl=en&amp;gbpv=1&amp;pg=PA21&amp;dq=mountstewart+rothesay+cotton+mill</t>
     </r>
@@ -293,6 +314,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1837 only</t>
     </r>
@@ -333,6 +355,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1837 only</t>
     </r>
@@ -358,6 +381,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>March 1830 to Feb 1833</t>
     </r>
@@ -366,6 +390,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. Located in New Galloway, not Kirkcudbright. Grid reference found on 25-inch OS map </t>
     </r>
@@ -375,6 +400,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://maps.nls.uk/geo/explore/side-by-side/#zoom=18&amp;lat=55.08152&amp;lon=-4.14197&amp;layers=168&amp;right=BingHyb</t>
     </r>
@@ -427,6 +453,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>JacsHu</t>
     </r>
@@ -443,6 +470,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Sept 1831 to Dec 1832; Jan 1833; 1834-end decade.</t>
     </r>
@@ -451,6 +479,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Observations also for 1840s and 1850s. Grid reference from CEDA Archive. Also found on 25-inch OS map </t>
     </r>
@@ -460,6 +489,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://maps.nls.uk/geo/explore/side-by-side/#zoom=18&amp;lat=55.99895&amp;lon=-2.65400&amp;layers=168&amp;right=BingHyb</t>
     </r>
@@ -503,6 +533,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Full decade</t>
     </r>
@@ -511,6 +542,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. Observations also for 1840s. House of Alexander Adie. Grid reference found on 25-inch OS map </t>
     </r>
@@ -520,6 +552,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://maps.nls.uk/geo/explore/side-by-side/#zoom=18&amp;lat=55.92952&amp;lon=-3.20268&amp;layers=168&amp;right=BingHyb</t>
     </r>
@@ -548,6 +581,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1834 only</t>
     </r>
@@ -600,6 +634,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1831-1836incl, 1839 in a different hand</t>
     </r>
@@ -613,6 +648,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>JacsHu</t>
     </r>
@@ -632,6 +668,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>I read it as Sorne Manse - compare the S and L in Sea Level. 1831 to end 1836; 1839 in a different hand (suspicioulsy like that for Catrine in record above.</t>
     </r>
@@ -640,6 +677,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>IanScrim Agree amended</t>
     </r>
@@ -659,6 +697,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Sept 1836 to June 1839 with a few missing months</t>
     </r>
@@ -681,6 +720,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1830 to end 1833</t>
     </r>
@@ -703,6 +743,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Nethercraigs. Dec 1834 to May1839 with a few missing months or merged months</t>
     </r>
@@ -728,6 +769,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> totals 1835 to end decade</t>
     </r>
@@ -747,6 +789,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> full decade</t>
     </r>
@@ -778,6 +821,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>total for 1832 only</t>
     </r>
@@ -797,6 +841,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Aug 1832 to Dec 1834</t>
     </r>
@@ -826,6 +871,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>full decade</t>
     </r>
@@ -851,6 +897,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Full decade except May-July 1839</t>
     </r>
@@ -900,6 +947,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1833 to end decade. Notes gauge in garden 1646 yds from the beacon.</t>
     </r>
@@ -931,6 +979,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1833 only</t>
     </r>
@@ -956,6 +1005,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Full decade. Runs to 1870s</t>
     </r>
@@ -975,6 +1025,7 @@
         <sz val="10"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>On Github.</t>
     </r>
@@ -983,6 +1034,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> full decade</t>
     </r>
@@ -1002,6 +1054,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Oct 1833 to end of decade</t>
     </r>
@@ -1024,6 +1077,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>In Mr Bald's garden, Craigwood Cottage. 1838 and 1839. Wonder if this and next record are related? Craigwood and Craigward. No observer names on either though.</t>
     </r>
@@ -1037,6 +1091,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1838 and 1839.</t>
     </r>
@@ -1045,6 +1100,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> In 1850s as NS 880 924        On OS map as Brick Works and Cottage https://books.google.es/books?id=83sLAAAAYAAJ&amp;pg=RA4-PR42&amp;lpg=RA4-PR42&amp;dq=Craigward+Cottage+Clackmannan&amp;source=bl&amp;ots=RYB_x_4eRM&amp;sig=ACfU3U0KcFGfulXzLHfhL-5SIPPczjQpIQ&amp;hl=en&amp;sa=X&amp;ved=2ahUKEwjsqfj07cTpAhWEBGMBHU7SDuAQ6AEwAnoECAcQAQ</t>
     </r>
@@ -1064,6 +1120,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Mar 1836 to end of decade.</t>
     </r>
@@ -1072,6 +1129,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> 1850s Dollar academy comment says a record was kept 1836 - 1858</t>
     </r>
@@ -1085,6 +1143,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1832 to end decad</t>
     </r>
@@ -1093,6 +1152,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>e. also TYRain_1840-1849_E_pt3        32</t>
     </r>
@@ -1244,6 +1304,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Dec 1836 to Sept 1839, occasional missing</t>
     </r>
@@ -1252,6 +1313,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">. This photograph </t>
     </r>
@@ -1261,6 +1323,7 @@
         <sz val="10"/>
         <color rgb="FF1155CC"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://collections.st-andrews.ac.uk/photographs/item/commercial-street-from-burnhead/53125</t>
     </r>
@@ -1269,6 +1332,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> suggests Burnhead is in central Dundee near Commercial Street, at 56 27 40 N, 002 58 12 W</t>
     </r>
@@ -1303,6 +1367,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Apr 1837 to end decade.</t>
     </r>
@@ -1340,6 +1405,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Full decade. Starts recording May 1827. </t>
     </r>
@@ -1348,6 +1414,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Most likely Buchan Ness Lighthouse, Peterhead, established 1827.  Latitude   57°28.227'N  Longitude 001°46.474'W</t>
     </r>
@@ -1371,6 +1438,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1832 only</t>
     </r>
@@ -1414,6 +1482,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1830 and 1831 only</t>
     </r>
@@ -1430,6 +1499,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>15th Oct 1833 to end decade</t>
     </r>
@@ -1438,6 +1508,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>. According to Wikipedia, Barra Head, also known as Berneray (Scottish Gaelic: Beàrnaraigh), is the southernmost island of the Outer
 Hebrides. Barra Head only referred to the southernmost headland of Berneray but is now a common name for the entire island. The highest point of the island is Sotan, a Marilyn. The Barra Head Lighthouse, built by Robert Stevenson, has operated since 1833. Given that observations begin in 1834, it seems likely that the gauge would be at/near the lighthouse but there are no details on the sheet.</t>
@@ -1482,6 +1553,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Oct 1831 to end decade On GitHub and completed so will need midofication. nothing for it in 1820s..</t>
     </r>
@@ -1490,6 +1562,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Now known as Dunnet Head.  No other details on sheet</t>
     </r>
@@ -1503,6 +1576,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Full decade and on Github.</t>
     </r>
@@ -1511,6 +1585,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">  No other details on sheet</t>
     </r>
@@ -1536,6 +1611,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Full decade, records start 1823</t>
     </r>
@@ -1576,6 +1652,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">1839 only. </t>
     </r>
@@ -1584,6 +1661,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Also 1840s</t>
     </r>
@@ -1606,6 +1684,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>1833 to end decade.</t>
     </r>
@@ -1613,6 +1692,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> According to Wikipedia, in 1830, Colonel </t>
     </r>
@@ -1621,6 +1701,7 @@
         <sz val="10"/>
         <color rgb="FF202122"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Edward Joshua Cooper</t>
     </r>
@@ -1628,6 +1709,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> MP (1798–1863 - the named observer), set up Markree Observatory on the grounds of </t>
     </r>
@@ -1636,6 +1718,7 @@
         <sz val="10"/>
         <color rgb="FF202122"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Markree Castle</t>
     </r>
@@ -1643,6 +1726,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> near </t>
     </r>
@@ -1651,6 +1735,7 @@
         <sz val="10"/>
         <color rgb="FF202122"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Collooney</t>
     </r>
@@ -1658,6 +1743,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> in </t>
     </r>
@@ -1666,6 +1752,7 @@
         <sz val="10"/>
         <color rgb="FF202122"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>County Sligo</t>
     </r>
@@ -1673,6 +1760,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>. The sheet states the gauge is 145ft ASL, level with the top of a wall 16ft above the ground.</t>
     </r>
@@ -1701,6 +1789,7 @@
         <sz val="10"/>
         <color rgb="FFFF00FF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">1830, 1832, part 1833, Oct 1835 to end decade. Also full decade in 1820s. </t>
     </r>
@@ -1709,6 +1798,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Sno970335 IJ(33)338740</t>
     </r>
@@ -1721,6 +1811,15 @@
   </si>
   <si>
     <t>RR228</t>
+  </si>
+  <si>
+    <t>5229/2</t>
+  </si>
+  <si>
+    <t>RR254</t>
+  </si>
+  <si>
+    <t>RR259</t>
   </si>
 </sst>
 </file>
@@ -1740,15 +1839,18 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1759,42 +1861,50 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF00FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF212529"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1821,6 +1931,7 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1833,11 +1944,13 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF202122"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2310,8 +2423,8 @@
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -3002,6 +3115,9 @@
       <c r="F26" s="25" t="s">
         <v>83</v>
       </c>
+      <c r="G26" s="40" t="s">
+        <v>337</v>
+      </c>
       <c r="H26" s="25" t="s">
         <v>84</v>
       </c>
@@ -3195,6 +3311,9 @@
       <c r="E34" s="24"/>
       <c r="F34" s="25" t="s">
         <v>18</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>335</v>
       </c>
       <c r="J34" s="25" t="s">
         <v>113</v>
@@ -4047,6 +4166,9 @@
       <c r="F71" s="25" t="s">
         <v>18</v>
       </c>
+      <c r="G71" s="40" t="s">
+        <v>336</v>
+      </c>
       <c r="J71" s="25" t="s">
         <v>218</v>
       </c>
@@ -5023,7 +5145,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15">
+    <row r="115" spans="1:10" ht="14">
       <c r="A115" s="21" t="s">
         <v>15</v>
       </c>

--- a/LOCATION SHEETS/1830sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1830sLOCATIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B658AF60-C05D-9743-B3E6-35BE70AD2EE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2614C550-C63B-C141-8EB3-E724D07EDC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="341">
   <si>
     <t>LOCATIONS IN 1830s</t>
   </si>
@@ -1820,6 +1820,15 @@
   </si>
   <si>
     <t>RR259</t>
+  </si>
+  <si>
+    <t>RR316</t>
+  </si>
+  <si>
+    <t>RR321</t>
+  </si>
+  <si>
+    <t>RR453</t>
   </si>
 </sst>
 </file>
@@ -2423,8 +2432,8 @@
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <pane ySplit="6" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -3030,6 +3039,9 @@
       <c r="F22" s="25" t="s">
         <v>18</v>
       </c>
+      <c r="G22" s="40" t="s">
+        <v>339</v>
+      </c>
       <c r="J22" s="25" t="s">
         <v>72</v>
       </c>
@@ -3050,6 +3062,9 @@
       <c r="E23" s="24"/>
       <c r="F23" s="25" t="s">
         <v>18</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>339</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>75</v>
@@ -4215,6 +4230,9 @@
       <c r="F73" s="25" t="s">
         <v>213</v>
       </c>
+      <c r="G73" s="40" t="s">
+        <v>340</v>
+      </c>
       <c r="H73" s="25" t="s">
         <v>223</v>
       </c>
@@ -4533,6 +4551,9 @@
       <c r="E87" s="24"/>
       <c r="F87" s="25" t="s">
         <v>18</v>
+      </c>
+      <c r="G87" t="s">
+        <v>338</v>
       </c>
       <c r="J87" s="25" t="s">
         <v>257</v>

--- a/LOCATION SHEETS/1830sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1830sLOCATIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2614C550-C63B-C141-8EB3-E724D07EDC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C02386-4295-C945-A2FC-C276C02B24C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="342">
   <si>
     <t>LOCATIONS IN 1830s</t>
   </si>
@@ -1829,6 +1829,9 @@
   </si>
   <si>
     <t>RR453</t>
+  </si>
+  <si>
+    <t>edh</t>
   </si>
 </sst>
 </file>
@@ -2432,8 +2435,8 @@
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H74" sqref="H74"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2839,6 +2842,12 @@
         <v>45</v>
       </c>
       <c r="E14" s="24"/>
+      <c r="F14" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
       <c r="I14" s="25" t="s">
         <v>46</v>
       </c>
@@ -5166,7 +5175,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="14">
+    <row r="115" spans="1:10" ht="15">
       <c r="A115" s="21" t="s">
         <v>15</v>
       </c>

--- a/LOCATION SHEETS/1830sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1830sLOCATIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C02386-4295-C945-A2FC-C276C02B24C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153D11EF-BA39-2341-877B-700D044BC564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="341">
   <si>
     <t>LOCATIONS IN 1830s</t>
   </si>
@@ -753,9 +753,6 @@
   </si>
   <si>
     <t>Sept 1831-Dec 33 less Nov/Dec 1832; 1835-1837</t>
-  </si>
-  <si>
-    <t>GREENOCK SHAWS, RENFREW</t>
   </si>
   <si>
     <t>GREENOCK SHAWS, RENFREW (by mean of 5 Gauges)</t>
@@ -2435,8 +2432,8 @@
   <dimension ref="A1:AA1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2675,7 +2672,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>19</v>
@@ -2843,7 +2840,7 @@
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
@@ -3049,7 +3046,7 @@
         <v>18</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>72</v>
@@ -3073,7 +3070,7 @@
         <v>18</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J23" s="25" t="s">
         <v>75</v>
@@ -3140,7 +3137,7 @@
         <v>83</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H26" s="25" t="s">
         <v>84</v>
@@ -3337,7 +3334,7 @@
         <v>18</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J34" s="25" t="s">
         <v>113</v>
@@ -3377,9 +3374,7 @@
       <c r="F36" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="G36" s="27">
-        <v>5255</v>
-      </c>
+      <c r="G36" s="27"/>
       <c r="J36" s="25" t="s">
         <v>118</v>
       </c>
@@ -3517,18 +3512,18 @@
         <v>37</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="21" t="s">
-        <v>136</v>
+      <c r="D42" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="25" t="s">
         <v>117</v>
       </c>
       <c r="H42" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J42" s="25" t="s">
         <v>137</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1">
@@ -3549,13 +3544,13 @@
         <v>117</v>
       </c>
       <c r="H43" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="I43" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="J43" s="25" t="s">
         <v>140</v>
-      </c>
-      <c r="J43" s="25" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
@@ -3566,15 +3561,18 @@
         <v>39</v>
       </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="21" t="s">
-        <v>142</v>
+      <c r="D44" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="E44" s="24"/>
       <c r="F44" s="25" t="s">
         <v>18</v>
       </c>
+      <c r="H44" s="5" t="s">
+        <v>141</v>
+      </c>
       <c r="J44" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
@@ -3585,17 +3583,17 @@
         <v>40</v>
       </c>
       <c r="C45" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>145</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
@@ -3614,10 +3612,10 @@
         <v>117</v>
       </c>
       <c r="H46" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="J46" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
@@ -3636,13 +3634,13 @@
         <v>117</v>
       </c>
       <c r="H47" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="I47" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="I47" s="36" t="s">
+      <c r="J47" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
@@ -3654,14 +3652,14 @@
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
@@ -3672,7 +3670,7 @@
         <v>44</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D49" s="21" t="s">
         <v>21</v>
@@ -3682,13 +3680,13 @@
         <v>117</v>
       </c>
       <c r="H49" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="I49" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="I49" s="40" t="s">
+      <c r="J49" s="41" t="s">
         <v>156</v>
-      </c>
-      <c r="J49" s="41" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
@@ -3699,26 +3697,26 @@
         <v>45</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G50" s="42">
         <v>5385</v>
       </c>
       <c r="H50" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="I50" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="I50" s="25" t="s">
+      <c r="J50" s="25" t="s">
         <v>161</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
@@ -3730,14 +3728,14 @@
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
@@ -3749,7 +3747,7 @@
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="25" t="s">
@@ -3759,7 +3757,7 @@
         <v>5415</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
@@ -3771,14 +3769,14 @@
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
@@ -3789,7 +3787,7 @@
         <v>49</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>21</v>
@@ -3799,14 +3797,14 @@
         <v>117</v>
       </c>
       <c r="G54" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="H54" s="25" t="s">
         <v>170</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>171</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="28" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
@@ -3825,13 +3823,13 @@
         <v>117</v>
       </c>
       <c r="H55" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="I55" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="I55" s="36" t="s">
+      <c r="J55" s="25" t="s">
         <v>174</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
@@ -3842,20 +3840,20 @@
         <v>51</v>
       </c>
       <c r="C56" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>176</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>177</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="25" t="s">
         <v>117</v>
       </c>
       <c r="G56" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="J56" s="28" t="s">
         <v>178</v>
-      </c>
-      <c r="J56" s="28" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
@@ -3866,7 +3864,7 @@
         <v>52</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D57" s="21" t="s">
         <v>21</v>
@@ -3879,10 +3877,10 @@
         <v>5427</v>
       </c>
       <c r="H57" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="J57" s="25" t="s">
         <v>181</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="13">
@@ -3896,11 +3894,11 @@
         <v>66</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E58" s="24"/>
       <c r="J58" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="13">
@@ -3911,20 +3909,20 @@
         <v>54</v>
       </c>
       <c r="C59" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>186</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="25" t="s">
         <v>117</v>
       </c>
       <c r="G59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J59" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="13">
@@ -3935,7 +3933,7 @@
         <v>55</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>21</v>
@@ -3948,10 +3946,10 @@
         <v>5440</v>
       </c>
       <c r="H60" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="J60" s="25" t="s">
         <v>189</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="13">
@@ -3963,19 +3961,19 @@
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="25" t="s">
         <v>117</v>
       </c>
       <c r="G61" s="46" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="13">
@@ -3994,10 +3992,10 @@
         <v>117</v>
       </c>
       <c r="H62" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J62" s="28" t="s">
         <v>194</v>
-      </c>
-      <c r="J62" s="28" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="13">
@@ -4009,14 +4007,14 @@
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="25" t="s">
         <v>117</v>
       </c>
       <c r="J63" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="13">
@@ -4028,14 +4026,14 @@
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="21" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="25" t="s">
         <v>117</v>
       </c>
       <c r="J64" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="13">
@@ -4046,7 +4044,7 @@
         <v>60</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D65" s="21" t="s">
         <v>21</v>
@@ -4056,13 +4054,13 @@
         <v>117</v>
       </c>
       <c r="G65" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="H65" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="J65" s="49" t="s">
         <v>202</v>
-      </c>
-      <c r="J65" s="49" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="13">
@@ -4074,14 +4072,14 @@
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="28" t="s">
         <v>18</v>
       </c>
       <c r="J66" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="13">
@@ -4092,17 +4090,17 @@
         <v>62</v>
       </c>
       <c r="C67" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D67" s="21" t="s">
         <v>206</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>207</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="25" t="s">
         <v>117</v>
       </c>
       <c r="J67" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="13">
@@ -4116,11 +4114,11 @@
         <v>95</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E68" s="24"/>
       <c r="J68" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="13">
@@ -4132,7 +4130,7 @@
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="25" t="s">
@@ -4142,7 +4140,7 @@
         <v>5504</v>
       </c>
       <c r="J69" s="25" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="13">
@@ -4158,19 +4156,19 @@
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G70" s="25">
         <v>5505</v>
       </c>
       <c r="H70" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="I70" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="I70" s="25" t="s">
+      <c r="J70" s="25" t="s">
         <v>215</v>
-      </c>
-      <c r="J70" s="25" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="13">
@@ -4184,17 +4182,17 @@
         <v>60</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G71" s="40" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J71" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="13">
@@ -4210,16 +4208,16 @@
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H72" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="I72" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="I72" s="25" t="s">
+      <c r="J72" s="25" t="s">
         <v>220</v>
-      </c>
-      <c r="J72" s="25" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="13">
@@ -4230,26 +4228,26 @@
         <v>68</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E73" s="24"/>
       <c r="F73" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G73" s="40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H73" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="I73" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="I73" s="25" t="s">
+      <c r="J73" s="25" t="s">
         <v>224</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="13">
@@ -4261,14 +4259,14 @@
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J74" s="25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="13">
@@ -4284,16 +4282,16 @@
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H75" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="I75" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="I75" s="25" t="s">
+      <c r="J75" s="25" t="s">
         <v>229</v>
-      </c>
-      <c r="J75" s="25" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="13">
@@ -4304,17 +4302,17 @@
         <v>71</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J76" s="25" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="13">
@@ -4328,14 +4326,14 @@
         <v>60</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J77" s="25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="13">
@@ -4354,10 +4352,10 @@
         <v>35</v>
       </c>
       <c r="H78" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J78" s="25" t="s">
         <v>235</v>
-      </c>
-      <c r="J78" s="25" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="13">
@@ -4378,10 +4376,10 @@
         <v>18</v>
       </c>
       <c r="H79" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="J79" s="25" t="s">
         <v>237</v>
-      </c>
-      <c r="J79" s="25" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="13">
@@ -4392,7 +4390,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D80" s="21" t="s">
         <v>21</v>
@@ -4402,10 +4400,10 @@
         <v>35</v>
       </c>
       <c r="H80" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J80" s="28" t="s">
         <v>239</v>
-      </c>
-      <c r="J80" s="28" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="13">
@@ -4417,14 +4415,14 @@
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="28" t="s">
         <v>18</v>
       </c>
       <c r="J81" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13">
@@ -4438,14 +4436,14 @@
         <v>76</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="28" t="s">
         <v>18</v>
       </c>
       <c r="J82" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="13">
@@ -4456,23 +4454,23 @@
         <v>78</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G83" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="G83" s="25" t="s">
+      <c r="H83" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="H83" s="25" t="s">
+      <c r="J83" s="28" t="s">
         <v>248</v>
-      </c>
-      <c r="J83" s="28" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13">
@@ -4483,23 +4481,23 @@
         <v>79</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G84" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="H84" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="H84" s="25" t="s">
-        <v>251</v>
-      </c>
       <c r="J84" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="13">
@@ -4515,13 +4513,13 @@
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H85" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="J85" s="31" t="s">
         <v>252</v>
-      </c>
-      <c r="J85" s="31" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="13">
@@ -4533,7 +4531,7 @@
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="28" t="s">
@@ -4543,7 +4541,7 @@
         <v>5620</v>
       </c>
       <c r="J86" s="28" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="13">
@@ -4555,17 +4553,17 @@
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J87" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="13">
@@ -4576,20 +4574,20 @@
         <v>83</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J88" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="13">
@@ -4607,13 +4605,13 @@
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H89" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="J89" s="25" t="s">
         <v>260</v>
-      </c>
-      <c r="J89" s="25" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="13">
@@ -4624,10 +4622,10 @@
         <v>85</v>
       </c>
       <c r="C90" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>262</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>263</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="25" t="s">
@@ -4637,7 +4635,7 @@
         <v>5643</v>
       </c>
       <c r="J90" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="13">
@@ -4648,10 +4646,10 @@
         <v>86</v>
       </c>
       <c r="C91" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D91" s="21" t="s">
         <v>265</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>266</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="25" t="s">
@@ -4670,14 +4668,14 @@
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J92" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="13">
@@ -4693,16 +4691,16 @@
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G93" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="H93" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="H93" s="25" t="s">
+      <c r="J93" s="25" t="s">
         <v>270</v>
-      </c>
-      <c r="J93" s="25" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="13">
@@ -4714,7 +4712,7 @@
       </c>
       <c r="C94" s="24"/>
       <c r="D94" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="25" t="s">
@@ -4724,7 +4722,7 @@
         <v>5660</v>
       </c>
       <c r="J94" s="25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="13">
@@ -4740,13 +4738,13 @@
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H95" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="J95" s="25" t="s">
         <v>274</v>
-      </c>
-      <c r="J95" s="25" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="13">
@@ -4757,17 +4755,17 @@
         <v>91</v>
       </c>
       <c r="C96" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D96" s="21" t="s">
         <v>276</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>277</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J96" s="25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="13">
@@ -4779,7 +4777,7 @@
       </c>
       <c r="C97" s="24"/>
       <c r="D97" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="25" t="s">
@@ -4789,7 +4787,7 @@
         <v>5673</v>
       </c>
       <c r="J97" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="13">
@@ -4801,14 +4799,14 @@
       </c>
       <c r="C98" s="24"/>
       <c r="D98" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J98" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="13">
@@ -4819,20 +4817,20 @@
         <v>94</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="H99" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="H99" s="25" t="s">
+      <c r="J99" s="25" t="s">
         <v>285</v>
-      </c>
-      <c r="J99" s="25" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="13">
@@ -4848,16 +4846,16 @@
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G100" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="H100" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="H100" s="25" t="s">
+      <c r="J100" s="25" t="s">
         <v>288</v>
-      </c>
-      <c r="J100" s="25" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="13">
@@ -4869,14 +4867,14 @@
       </c>
       <c r="C101" s="24"/>
       <c r="D101" s="21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G101" s="25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J101" s="25" t="s">
         <v>59</v>
@@ -4891,14 +4889,14 @@
       </c>
       <c r="C102" s="24"/>
       <c r="D102" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J102" s="25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="13">
@@ -4909,13 +4907,13 @@
         <v>98</v>
       </c>
       <c r="C103" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D103" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="D103" s="21" t="s">
+      <c r="E103" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>296</v>
       </c>
       <c r="F103" s="28" t="s">
         <v>18</v>
@@ -4924,7 +4922,7 @@
         <v>5778</v>
       </c>
       <c r="J103" s="28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="13">
@@ -4936,10 +4934,10 @@
       </c>
       <c r="C104" s="24"/>
       <c r="D104" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="E104" s="33" t="s">
         <v>298</v>
-      </c>
-      <c r="E104" s="33" t="s">
-        <v>299</v>
       </c>
       <c r="F104" s="25" t="s">
         <v>18</v>
@@ -4964,16 +4962,16 @@
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G105" s="25">
         <v>5814</v>
       </c>
       <c r="H105" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="J105" s="25" t="s">
         <v>300</v>
-      </c>
-      <c r="J105" s="25" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="13">
@@ -4989,16 +4987,16 @@
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G106" s="25">
         <v>5818</v>
       </c>
       <c r="H106" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="J106" s="25" t="s">
         <v>302</v>
-      </c>
-      <c r="J106" s="25" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="13">
@@ -5010,7 +5008,7 @@
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="28" t="s">
@@ -5020,7 +5018,7 @@
         <v>5828</v>
       </c>
       <c r="J107" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="13">
@@ -5036,16 +5034,16 @@
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G108" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="H108" s="25" t="s">
         <v>306</v>
       </c>
-      <c r="H108" s="25" t="s">
+      <c r="J108" s="25" t="s">
         <v>307</v>
-      </c>
-      <c r="J108" s="25" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="13">
@@ -5057,17 +5055,17 @@
       </c>
       <c r="C109" s="24"/>
       <c r="D109" s="21" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G109" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="J109" s="25" t="s">
         <v>310</v>
-      </c>
-      <c r="J109" s="25" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="13">
@@ -5079,17 +5077,17 @@
       </c>
       <c r="C110" s="24"/>
       <c r="D110" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G110" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J110" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="13">
@@ -5101,16 +5099,16 @@
       </c>
       <c r="C111" s="24"/>
       <c r="D111" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="E111" s="33" t="s">
         <v>314</v>
-      </c>
-      <c r="E111" s="33" t="s">
-        <v>315</v>
       </c>
       <c r="F111" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J111" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="13">
@@ -5124,7 +5122,7 @@
         <v>95</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="25" t="s">
@@ -5134,7 +5132,7 @@
         <v>6118</v>
       </c>
       <c r="J112" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="13">
@@ -5146,14 +5144,14 @@
       </c>
       <c r="C113" s="24"/>
       <c r="D113" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="28" t="s">
         <v>18</v>
       </c>
       <c r="J113" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="13">
@@ -5165,14 +5163,14 @@
       </c>
       <c r="C114" s="24"/>
       <c r="D114" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J114" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15">
@@ -5183,23 +5181,23 @@
         <v>110</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D115" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G115" s="25">
         <v>6175</v>
       </c>
       <c r="H115" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="J115" s="50" t="s">
         <v>323</v>
-      </c>
-      <c r="J115" s="50" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="13">
@@ -5210,10 +5208,10 @@
         <v>111</v>
       </c>
       <c r="C116" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D116" s="21" t="s">
         <v>325</v>
-      </c>
-      <c r="D116" s="21" t="s">
-        <v>326</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="25" t="s">
@@ -5223,7 +5221,7 @@
         <v>6193</v>
       </c>
       <c r="J116" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="13">
@@ -5237,20 +5235,20 @@
         <v>38</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="I117" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="I117" s="25" t="s">
+      <c r="J117" s="25" t="s">
         <v>330</v>
-      </c>
-      <c r="J117" s="25" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="13">

--- a/LOCATION SHEETS/1830sLOCATIONS.xlsx
+++ b/LOCATION SHEETS/1830sLOCATIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153D11EF-BA39-2341-877B-700D044BC564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06880CD9-B884-DC4D-BB27-4F0AF2275BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -265,9 +265,6 @@
   </si>
   <si>
     <t>RR124</t>
-  </si>
-  <si>
-    <t>ROTHESAY COTTON MILLS</t>
   </si>
   <si>
     <r>
@@ -1130,9 +1127,6 @@
       </rPr>
       <t xml:space="preserve"> 1850s Dollar academy comment says a record was kept 1836 - 1858</t>
     </r>
-  </si>
-  <si>
-    <t>DUNFERMLINE</t>
   </si>
   <si>
     <r>
@@ -1829,6 +1823,12 @@
   </si>
   <si>
     <t>edh</t>
+  </si>
+  <si>
+    <t>BUTE MOUNTSTUART</t>
+  </si>
+  <si>
+    <t>DUNFERMLINE (FERGUS)</t>
   </si>
 </sst>
 </file>
@@ -2431,9 +2431,9 @@
   </sheetPr>
   <dimension ref="A1:AA1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -2672,7 +2672,7 @@
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>19</v>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="E14" s="24"/>
       <c r="F14" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G14" t="s">
         <v>48</v>
@@ -2869,17 +2869,15 @@
       <c r="F15" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>49</v>
+      <c r="G15" s="25"/>
+      <c r="H15" s="5" t="s">
+        <v>339</v>
       </c>
       <c r="I15" s="30" t="s">
         <v>46</v>
       </c>
       <c r="J15" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="15.75" customHeight="1">
@@ -2901,13 +2899,13 @@
         <v>5001</v>
       </c>
       <c r="H16" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="J16" s="25" t="s">
         <v>52</v>
-      </c>
-      <c r="J16" s="25" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -2919,10 +2917,10 @@
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>54</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>55</v>
       </c>
       <c r="F17" s="28" t="s">
         <v>18</v>
@@ -2931,7 +2929,7 @@
         <v>1133043</v>
       </c>
       <c r="J17" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -2943,16 +2941,16 @@
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="33" t="s">
         <v>57</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>58</v>
       </c>
       <c r="G18" s="25">
         <v>5004</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
@@ -2963,7 +2961,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>21</v>
@@ -2973,13 +2971,13 @@
         <v>35</v>
       </c>
       <c r="H19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="J19" s="25" t="s">
         <v>62</v>
-      </c>
-      <c r="J19" s="25" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
@@ -2991,14 +2989,14 @@
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="24"/>
       <c r="F20" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J20" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
@@ -3009,7 +3007,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>21</v>
@@ -3019,13 +3017,13 @@
         <v>35</v>
       </c>
       <c r="H21" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="J21" s="31" t="s">
         <v>68</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
@@ -3036,20 +3034,20 @@
         <v>17</v>
       </c>
       <c r="C22" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="E22" s="24"/>
       <c r="F22" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G22" s="40" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J22" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
@@ -3060,20 +3058,20 @@
         <v>18</v>
       </c>
       <c r="C23" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="E23" s="24"/>
       <c r="F23" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J23" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
@@ -3084,19 +3082,19 @@
         <v>19</v>
       </c>
       <c r="C24" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="E24" s="33" t="s">
         <v>77</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>78</v>
       </c>
       <c r="F24" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
@@ -3108,17 +3106,17 @@
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="24"/>
       <c r="F25" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="28" t="s">
         <v>81</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
@@ -3134,19 +3132,19 @@
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>334</v>
+      </c>
+      <c r="H26" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G26" s="40" t="s">
-        <v>336</v>
-      </c>
-      <c r="H26" s="25" t="s">
+      <c r="I26" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="I26" s="25" t="s">
+      <c r="J26" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
@@ -3158,14 +3156,14 @@
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E27" s="24"/>
       <c r="F27" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J27" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
@@ -3176,22 +3174,22 @@
         <v>23</v>
       </c>
       <c r="C28" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="E28" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="F28" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="I28" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="I28" s="25" t="s">
+      <c r="J28" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="J28" s="25" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
@@ -3202,25 +3200,25 @@
         <v>24</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F29" s="25" t="s">
         <v>35</v>
       </c>
       <c r="H29" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I29" s="25" t="s">
+      <c r="J29" s="31" t="s">
         <v>97</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
@@ -3239,10 +3237,10 @@
         <v>35</v>
       </c>
       <c r="H30" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" s="25" t="s">
         <v>99</v>
-      </c>
-      <c r="J30" s="25" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
@@ -3253,20 +3251,20 @@
         <v>26</v>
       </c>
       <c r="C31" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>101</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>102</v>
       </c>
       <c r="E31" s="24"/>
       <c r="F31" s="25" t="s">
         <v>42</v>
       </c>
       <c r="G31" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" s="25" t="s">
         <v>103</v>
-      </c>
-      <c r="J31" s="25" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
@@ -3285,13 +3283,13 @@
         <v>35</v>
       </c>
       <c r="G32" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="25" t="s">
+      <c r="J32" s="28" t="s">
         <v>106</v>
-      </c>
-      <c r="J32" s="28" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
@@ -3302,20 +3300,20 @@
         <v>28</v>
       </c>
       <c r="C33" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>109</v>
       </c>
       <c r="E33" s="24"/>
       <c r="F33" s="25" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="J33" s="25" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
@@ -3327,17 +3325,17 @@
       </c>
       <c r="C34" s="24"/>
       <c r="D34" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" s="24"/>
       <c r="F34" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="40" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
@@ -3349,14 +3347,14 @@
       </c>
       <c r="C35" s="24"/>
       <c r="D35" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" s="24"/>
       <c r="F35" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
@@ -3368,15 +3366,15 @@
       </c>
       <c r="C36" s="24"/>
       <c r="D36" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E36" s="24"/>
       <c r="F36" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G36" s="27"/>
       <c r="J36" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
@@ -3392,16 +3390,16 @@
       </c>
       <c r="E37" s="24"/>
       <c r="F37" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="I37" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="I37" s="36" t="s">
+      <c r="J37" s="25" t="s">
         <v>121</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
@@ -3412,23 +3410,23 @@
         <v>33</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="24"/>
       <c r="F38" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G38" s="27">
         <v>5283</v>
       </c>
       <c r="H38" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="J38" s="25" t="s">
         <v>124</v>
-      </c>
-      <c r="J38" s="25" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1">
@@ -3439,20 +3437,20 @@
         <v>34</v>
       </c>
       <c r="C39" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>126</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>127</v>
       </c>
       <c r="E39" s="24"/>
       <c r="F39" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G39" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J39" s="25" t="s">
         <v>128</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
@@ -3463,23 +3461,23 @@
         <v>35</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E40" s="24"/>
       <c r="F40" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H40" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="37" t="s">
+      <c r="J40" s="38" t="s">
         <v>132</v>
-      </c>
-      <c r="J40" s="38" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
@@ -3495,13 +3493,13 @@
       </c>
       <c r="E41" s="24"/>
       <c r="F41" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H41" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" s="28" t="s">
         <v>134</v>
-      </c>
-      <c r="J41" s="28" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
@@ -3517,13 +3515,13 @@
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H42" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J42" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="J42" s="25" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1">
@@ -3534,23 +3532,23 @@
         <v>38</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E43" s="24"/>
       <c r="F43" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H43" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I43" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="I43" s="25" t="s">
+      <c r="J43" s="25" t="s">
         <v>139</v>
-      </c>
-      <c r="J43" s="25" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
@@ -3569,10 +3567,10 @@
         <v>18</v>
       </c>
       <c r="H44" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="J44" s="25" t="s">
         <v>141</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
@@ -3583,17 +3581,17 @@
         <v>40</v>
       </c>
       <c r="C45" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>143</v>
-      </c>
-      <c r="D45" s="21" t="s">
-        <v>144</v>
       </c>
       <c r="E45" s="24"/>
       <c r="F45" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
@@ -3609,13 +3607,13 @@
       </c>
       <c r="E46" s="24"/>
       <c r="F46" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H46" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="J46" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="J46" s="25" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
@@ -3631,16 +3629,16 @@
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H47" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="I47" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="I47" s="36" t="s">
+      <c r="J47" s="25" t="s">
         <v>149</v>
-      </c>
-      <c r="J47" s="25" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
@@ -3652,14 +3650,14 @@
       </c>
       <c r="C48" s="24"/>
       <c r="D48" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
@@ -3670,23 +3668,23 @@
         <v>44</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H49" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I49" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="I49" s="40" t="s">
+      <c r="J49" s="41" t="s">
         <v>155</v>
-      </c>
-      <c r="J49" s="41" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
@@ -3697,26 +3695,26 @@
         <v>45</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D50" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G50" s="42">
         <v>5385</v>
       </c>
       <c r="H50" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="I50" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="I50" s="25" t="s">
+      <c r="J50" s="25" t="s">
         <v>160</v>
-      </c>
-      <c r="J50" s="25" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
@@ -3728,14 +3726,14 @@
       </c>
       <c r="C51" s="24"/>
       <c r="D51" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
@@ -3747,7 +3745,7 @@
       </c>
       <c r="C52" s="24"/>
       <c r="D52" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="25" t="s">
@@ -3757,7 +3755,7 @@
         <v>5415</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
@@ -3769,14 +3767,14 @@
       </c>
       <c r="C53" s="24"/>
       <c r="D53" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
@@ -3787,24 +3785,24 @@
         <v>49</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G54" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H54" s="25" t="s">
         <v>169</v>
-      </c>
-      <c r="H54" s="25" t="s">
-        <v>170</v>
       </c>
       <c r="I54" s="27"/>
       <c r="J54" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
@@ -3820,16 +3818,16 @@
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H55" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="I55" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="I55" s="36" t="s">
+      <c r="J55" s="25" t="s">
         <v>173</v>
-      </c>
-      <c r="J55" s="25" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
@@ -3840,20 +3838,20 @@
         <v>51</v>
       </c>
       <c r="C56" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="21" t="s">
         <v>175</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>176</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G56" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="J56" s="28" t="s">
         <v>177</v>
-      </c>
-      <c r="J56" s="28" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
@@ -3864,23 +3862,23 @@
         <v>52</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D57" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G57" s="42">
         <v>5427</v>
       </c>
       <c r="H57" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="J57" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="J57" s="25" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="13">
@@ -3891,14 +3889,14 @@
         <v>53</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D58" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E58" s="24"/>
       <c r="J58" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="13">
@@ -3909,20 +3907,20 @@
         <v>54</v>
       </c>
       <c r="C59" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" s="21" t="s">
         <v>184</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>185</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G59" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J59" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="13">
@@ -3933,23 +3931,23 @@
         <v>55</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D60" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G60" s="27">
         <v>5440</v>
       </c>
       <c r="H60" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="J60" s="25" t="s">
         <v>188</v>
-      </c>
-      <c r="J60" s="25" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="13">
@@ -3961,19 +3959,19 @@
       </c>
       <c r="C61" s="24"/>
       <c r="D61" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G61" s="46" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="13">
@@ -3989,13 +3987,13 @@
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H62" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J62" s="28" t="s">
         <v>193</v>
-      </c>
-      <c r="J62" s="28" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="13">
@@ -4007,14 +4005,14 @@
       </c>
       <c r="C63" s="24"/>
       <c r="D63" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J63" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="13">
@@ -4026,14 +4024,14 @@
       </c>
       <c r="C64" s="24"/>
       <c r="D64" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J64" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="13">
@@ -4044,23 +4042,23 @@
         <v>60</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G65" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="H65" s="25" t="s">
+      <c r="J65" s="49" t="s">
         <v>201</v>
-      </c>
-      <c r="J65" s="49" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="13">
@@ -4071,15 +4069,18 @@
         <v>61</v>
       </c>
       <c r="C66" s="24"/>
-      <c r="D66" s="21" t="s">
-        <v>203</v>
+      <c r="D66" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="28" t="s">
         <v>18</v>
       </c>
+      <c r="H66" s="40" t="s">
+        <v>340</v>
+      </c>
       <c r="J66" s="25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="13">
@@ -4090,17 +4091,17 @@
         <v>62</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J67" s="25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="13">
@@ -4111,14 +4112,14 @@
         <v>63</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E68" s="24"/>
       <c r="J68" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="13">
@@ -4130,17 +4131,17 @@
       </c>
       <c r="C69" s="24"/>
       <c r="D69" s="21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G69" s="42">
         <v>5504</v>
       </c>
       <c r="J69" s="25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="13">
@@ -4156,19 +4157,19 @@
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G70" s="25">
         <v>5505</v>
       </c>
       <c r="H70" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="I70" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="J70" s="25" t="s">
         <v>213</v>
-      </c>
-      <c r="I70" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="J70" s="25" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="13">
@@ -4179,20 +4180,20 @@
         <v>66</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D71" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G71" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J71" s="25" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="13">
@@ -4208,16 +4209,16 @@
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H72" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="I72" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J72" s="25" t="s">
         <v>218</v>
-      </c>
-      <c r="I72" s="25" t="s">
-        <v>219</v>
-      </c>
-      <c r="J72" s="25" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="13">
@@ -4228,26 +4229,26 @@
         <v>68</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D73" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E73" s="24"/>
       <c r="F73" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G73" s="40" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H73" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="I73" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J73" s="25" t="s">
         <v>222</v>
-      </c>
-      <c r="I73" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="J73" s="25" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="13">
@@ -4259,14 +4260,14 @@
       </c>
       <c r="C74" s="24"/>
       <c r="D74" s="21" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J74" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="13">
@@ -4282,16 +4283,16 @@
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H75" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="I75" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="J75" s="25" t="s">
         <v>227</v>
-      </c>
-      <c r="I75" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="J75" s="25" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="13">
@@ -4302,17 +4303,17 @@
         <v>71</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J76" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="13">
@@ -4323,17 +4324,17 @@
         <v>72</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J77" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="13">
@@ -4352,10 +4353,10 @@
         <v>35</v>
       </c>
       <c r="H78" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="J78" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="13">
@@ -4366,7 +4367,7 @@
         <v>74</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D79" s="21" t="s">
         <v>21</v>
@@ -4376,10 +4377,10 @@
         <v>18</v>
       </c>
       <c r="H79" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J79" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="13">
@@ -4390,7 +4391,7 @@
         <v>75</v>
       </c>
       <c r="C80" s="23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D80" s="21" t="s">
         <v>21</v>
@@ -4400,10 +4401,10 @@
         <v>35</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J80" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="13">
@@ -4415,14 +4416,14 @@
       </c>
       <c r="C81" s="24"/>
       <c r="D81" s="21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="28" t="s">
         <v>18</v>
       </c>
       <c r="J81" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="13">
@@ -4433,17 +4434,17 @@
         <v>77</v>
       </c>
       <c r="C82" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="28" t="s">
         <v>18</v>
       </c>
       <c r="J82" s="28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="13">
@@ -4454,23 +4455,23 @@
         <v>78</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="H83" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="G83" s="25" t="s">
+      <c r="J83" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="H83" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="J83" s="28" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="13">
@@ -4481,23 +4482,23 @@
         <v>79</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G84" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J84" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="13">
@@ -4513,13 +4514,13 @@
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H85" s="25" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J85" s="31" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="13">
@@ -4531,7 +4532,7 @@
       </c>
       <c r="C86" s="24"/>
       <c r="D86" s="21" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="28" t="s">
@@ -4541,7 +4542,7 @@
         <v>5620</v>
       </c>
       <c r="J86" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="13">
@@ -4553,17 +4554,17 @@
       </c>
       <c r="C87" s="24"/>
       <c r="D87" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G87" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J87" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="13">
@@ -4574,20 +4575,20 @@
         <v>83</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J88" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="13">
@@ -4598,20 +4599,20 @@
         <v>84</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D89" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H89" s="25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J89" s="25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="13">
@@ -4622,10 +4623,10 @@
         <v>85</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="25" t="s">
@@ -4635,7 +4636,7 @@
         <v>5643</v>
       </c>
       <c r="J90" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="13">
@@ -4646,17 +4647,17 @@
         <v>86</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J91" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="13">
@@ -4668,14 +4669,14 @@
       </c>
       <c r="C92" s="24"/>
       <c r="D92" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J92" s="25" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="13">
@@ -4691,16 +4692,16 @@
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G93" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="J93" s="25" t="s">
         <v>268</v>
-      </c>
-      <c r="H93" s="25" t="s">
-        <v>269</v>
-      </c>
-      <c r="J93" s="25" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="13">
@@ -4712,7 +4713,7 @@
       </c>
       <c r="C94" s="24"/>
       <c r="D94" s="21" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="25" t="s">
@@ -4722,7 +4723,7 @@
         <v>5660</v>
       </c>
       <c r="J94" s="25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="13">
@@ -4738,13 +4739,13 @@
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H95" s="25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J95" s="25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="13">
@@ -4755,17 +4756,17 @@
         <v>91</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J96" s="25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="13">
@@ -4777,7 +4778,7 @@
       </c>
       <c r="C97" s="24"/>
       <c r="D97" s="21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="25" t="s">
@@ -4787,7 +4788,7 @@
         <v>5673</v>
       </c>
       <c r="J97" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="13">
@@ -4799,14 +4800,14 @@
       </c>
       <c r="C98" s="24"/>
       <c r="D98" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J98" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="13">
@@ -4817,20 +4818,20 @@
         <v>94</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D99" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="H99" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="J99" s="25" t="s">
         <v>283</v>
-      </c>
-      <c r="H99" s="25" t="s">
-        <v>284</v>
-      </c>
-      <c r="J99" s="25" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="13">
@@ -4846,16 +4847,16 @@
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G100" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="H100" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="J100" s="25" t="s">
         <v>286</v>
-      </c>
-      <c r="H100" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="J100" s="25" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="13">
@@ -4867,17 +4868,17 @@
       </c>
       <c r="C101" s="24"/>
       <c r="D101" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G101" s="25" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J101" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="13">
@@ -4889,14 +4890,14 @@
       </c>
       <c r="C102" s="24"/>
       <c r="D102" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J102" s="25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="13">
@@ -4907,13 +4908,13 @@
         <v>98</v>
       </c>
       <c r="C103" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E103" s="33" t="s">
         <v>293</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="E103" s="33" t="s">
-        <v>295</v>
       </c>
       <c r="F103" s="28" t="s">
         <v>18</v>
@@ -4922,7 +4923,7 @@
         <v>5778</v>
       </c>
       <c r="J103" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="13">
@@ -4934,10 +4935,10 @@
       </c>
       <c r="C104" s="24"/>
       <c r="D104" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E104" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F104" s="25" t="s">
         <v>18</v>
@@ -4946,7 +4947,7 @@
         <v>5804</v>
       </c>
       <c r="J104" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="13">
@@ -4962,16 +4963,16 @@
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G105" s="25">
         <v>5814</v>
       </c>
       <c r="H105" s="25" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J105" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="13">
@@ -4987,16 +4988,16 @@
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G106" s="25">
         <v>5818</v>
       </c>
       <c r="H106" s="25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J106" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="13">
@@ -5008,7 +5009,7 @@
       </c>
       <c r="C107" s="24"/>
       <c r="D107" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="28" t="s">
@@ -5018,7 +5019,7 @@
         <v>5828</v>
       </c>
       <c r="J107" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="13">
@@ -5034,16 +5035,16 @@
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G108" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="H108" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="J108" s="25" t="s">
         <v>305</v>
-      </c>
-      <c r="H108" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="J108" s="25" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="13">
@@ -5055,17 +5056,17 @@
       </c>
       <c r="C109" s="24"/>
       <c r="D109" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G109" s="25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J109" s="25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="13">
@@ -5077,17 +5078,17 @@
       </c>
       <c r="C110" s="24"/>
       <c r="D110" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G110" s="25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J110" s="25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="13">
@@ -5099,16 +5100,16 @@
       </c>
       <c r="C111" s="24"/>
       <c r="D111" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E111" s="33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F111" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J111" s="25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="13">
@@ -5119,10 +5120,10 @@
         <v>107</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="25" t="s">
@@ -5132,7 +5133,7 @@
         <v>6118</v>
       </c>
       <c r="J112" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="13">
@@ -5144,14 +5145,14 @@
       </c>
       <c r="C113" s="24"/>
       <c r="D113" s="21" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="28" t="s">
         <v>18</v>
       </c>
       <c r="J113" s="25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="13">
@@ -5163,14 +5164,14 @@
       </c>
       <c r="C114" s="24"/>
       <c r="D114" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="25" t="s">
         <v>18</v>
       </c>
       <c r="J114" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15">
@@ -5181,23 +5182,23 @@
         <v>110</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D115" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G115" s="25">
         <v>6175</v>
       </c>
       <c r="H115" s="25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J115" s="50" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="13">
@@ -5208,10 +5209,10 @@
         <v>111</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="25" t="s">
@@ -5221,7 +5222,7 @@
         <v>6193</v>
       </c>
       <c r="J116" s="25" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="13">
@@ -5235,20 +5236,20 @@
         <v>38</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="28" t="s">
         <v>18</v>
       </c>
       <c r="G117" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="I117" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="J117" s="25" t="s">
         <v>328</v>
-      </c>
-      <c r="I117" s="25" t="s">
-        <v>329</v>
-      </c>
-      <c r="J117" s="25" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="13">
